--- a/design/hardware/CAD_FILES/Senior Design Purchase Request (Amazon).xlsx
+++ b/design/hardware/CAD_FILES/Senior Design Purchase Request (Amazon).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Purdue\ECE47700\DodgeBot\design\hardware\CAD_FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Purdue\ECE47700\DodgeBot\design\hardware\CAD_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8A92EE-35A4-4701-99F3-76658A62A3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA09F21-419F-412E-9620-FB4A699CACF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6202AF7F-2BD1-4FB3-9299-BDDA5367661D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Vendor:</t>
   </si>
@@ -141,9 +141,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>sales@qualitybearingsonline.com</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
@@ -156,7 +153,16 @@
     <t>https://www.amazon.com/DEFY-Training-Punching-Sparring-Kickboxing/dp/B0B7WFHT4B/ref=cm_cr_arp_d_product_top?ie=UTF8&amp;th=1</t>
   </si>
   <si>
-    <t>‎Full Yellow Gloves_1</t>
+    <t>https://www.amazon.com/ALITOVE-Converter-Transformer-5-5x2-1mm-Computer/dp/B078RY7BPL/ref=sr_1_5?crid=1NO558CG2W26G&amp;dib=eyJ2IjoiMSJ9.4hrsk5nXdUXg9xc-aKqZss7TUeXCHmQ8jf7ePTq5mZwi-ZQ57mGjn65JH0s7Jx8uHQ3fOOWZmfMHb2MuheJu5P1H6oAzNbYFnzwDslZv8uZdFiCdMWWUheggqXhc2CrJNEAoIhgOY67M6oOKoT8mJp1bzcCKfViUwtBrQilRBKhLZ_updujyaZfQsMCd6h5TOz55DgE1PYoyHxcpxzA9DwAZQe-T4YO0rmGV1oansB0.oXf9mOclnDOgnKkAv43LlpRAD5wrOtkWkv1qbKxR3pE&amp;dib_tag=se&amp;keywords=24v%2Bpower%2Bsupply&amp;qid=1708521088&amp;sprefix=24v%2B%2Caps%2C115&amp;sr=8-5&amp;th=1</t>
+  </si>
+  <si>
+    <t>24V 3A 72W AC to DC Adapter Power Supply    /    ALT-2403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFY Yellow 10oz Boxing Gloves  ‎/  Full Yellow Gloves_1 </t>
+  </si>
+  <si>
+    <t>TAX</t>
   </si>
 </sst>
 </file>
@@ -449,6 +455,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,9 +522,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,9 +544,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,7 +584,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -684,7 +690,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,7 +832,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -840,7 +846,7 @@
   <dimension ref="B1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:N17"/>
+      <selection activeCell="E23" sqref="E23:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -848,7 +854,7 @@
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.42578125" style="1" customWidth="1"/>
     <col min="6" max="12" width="9" style="1"/>
     <col min="13" max="13" width="2.42578125" style="1" customWidth="1"/>
@@ -860,48 +866,48 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="F2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="36">
-        <v>45335</v>
-      </c>
-      <c r="P2" s="37"/>
+      <c r="O2" s="37">
+        <v>45343</v>
+      </c>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="F3" s="22" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="F3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="37"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="2:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -909,18 +915,18 @@
         <v>0</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="19"/>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
       <c r="N5" s="2" t="s">
         <v>9</v>
       </c>
@@ -937,44 +943,44 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>37</v>
+      <c r="C6" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
       <c r="N6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="19"/>
       <c r="N7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -982,15 +988,15 @@
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="19"/>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
       <c r="N8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1007,23 +1013,21 @@
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>34</v>
-      </c>
+      <c r="C9" s="27"/>
       <c r="D9" s="19"/>
-      <c r="F9" s="22">
+      <c r="F9" s="23">
         <v>7600000796</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="N9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="27" t="s">
         <v>31</v>
       </c>
       <c r="P9" s="18"/>
@@ -1034,23 +1038,23 @@
     </row>
     <row r="10" spans="2:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1063,70 +1067,76 @@
     </row>
     <row r="12" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
       <c r="O12" s="6">
         <v>1</v>
       </c>
       <c r="P12" s="7">
-        <v>22.46</v>
+        <v>20.99</v>
       </c>
       <c r="Q12" s="8">
         <f>O12*P12</f>
-        <v>22.46</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="13" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
+      <c r="B13" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="6"/>
+      <c r="E13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
       <c r="P13" s="7">
-        <v>0</v>
+        <v>14.99</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" ref="Q13:Q19" si="0">O13*P13</f>
-        <v>0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
       <c r="O14" s="6"/>
       <c r="P14" s="7">
         <v>0</v>
@@ -1140,16 +1150,16 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
       <c r="O15" s="6"/>
       <c r="P15" s="7">
         <v>0</v>
@@ -1166,16 +1176,16 @@
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
       <c r="O16" s="6"/>
       <c r="P16" s="7">
         <v>0</v>
@@ -1189,16 +1199,16 @@
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
       <c r="O17" s="6"/>
       <c r="P17" s="7">
         <v>0</v>
@@ -1212,16 +1222,16 @@
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
       <c r="O18" s="6"/>
       <c r="P18" s="7">
         <v>0</v>
@@ -1235,16 +1245,16 @@
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
       <c r="O19" s="6"/>
       <c r="P19" s="7">
         <v>0</v>
@@ -1258,16 +1268,16 @@
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
       <c r="O20" s="6"/>
       <c r="P20" s="7">
         <v>0</v>
@@ -1534,7 +1544,9 @@
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -1544,13 +1556,15 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="6"/>
+      <c r="O32" s="6">
+        <v>1</v>
+      </c>
       <c r="P32" s="7">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1597,28 +1611,28 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="5">
         <f>SUM(Q12:Q33)</f>
-        <v>22.46</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
     </row>
     <row r="36" spans="2:17" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
@@ -2208,8 +2222,6 @@
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E32:N32"/>
-    <mergeCell ref="B32:D32"/>
     <mergeCell ref="E31:N31"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E30:N30"/>
@@ -2232,18 +2244,18 @@
     <mergeCell ref="E27:N27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:N28"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:N46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:N47"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:N51"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="E52:N52"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="E48:N48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:N49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:N50"/>
+    <mergeCell ref="E32:N32"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:N56"/>
     <mergeCell ref="B34:P34"/>
     <mergeCell ref="B33:O33"/>
     <mergeCell ref="B40:D40"/>
@@ -2258,22 +2270,14 @@
     <mergeCell ref="E39:N39"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="E41:N41"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:N49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:N50"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:N57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:N58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:N59"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:N54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:N55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:N56"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:N46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:N47"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:N51"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="E53:N53"/>
     <mergeCell ref="B63:D63"/>
@@ -2288,12 +2292,22 @@
     <mergeCell ref="E61:N61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:N62"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:N57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:N58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:N59"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:N54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:N55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{4CB1483F-235E-49B2-B30F-5AC070171770}"/>
     <hyperlink ref="O9" r:id="rId2" xr:uid="{839E20D3-2744-40C5-B564-C6A431E2A02A}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{C012D256-4AD0-4D93-9B64-242BFDF1F415}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{7BC583F2-59C6-4162-91D1-824931D28CC6}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{7BC583F2-59C6-4162-91D1-824931D28CC6}"/>
+    <hyperlink ref="E13" r:id="rId4" display="https://www.amazon.com/ALITOVE-Converter-Transformer-5-5x2-1mm-Computer/dp/B078RY7BPL/ref=sr_1_5?crid=1NO558CG2W26G&amp;dib=eyJ2IjoiMSJ9.4hrsk5nXdUXg9xc-aKqZss7TUeXCHmQ8jf7ePTq5mZwi-ZQ57mGjn65JH0s7Jx8uHQ3fOOWZmfMHb2MuheJu5P1H6oAzNbYFnzwDslZv8uZdFiCdMWWUheggqXhc2CrJNEAoIhgOY67M6oOKoT8mJp1bzcCKfViUwtBrQilRBKhLZ_updujyaZfQsMCd6h5TOz55DgE1PYoyHxcpxzA9DwAZQe-T4YO0rmGV1oansB0.oXf9mOclnDOgnKkAv43LlpRAD5wrOtkWkv1qbKxR3pE&amp;dib_tag=se&amp;keywords=24v%2Bpower%2Bsupply&amp;qid=1708521088&amp;sprefix=24v%2B%2Caps%2C115&amp;sr=8-5&amp;th=1" xr:uid="{2E99B609-EDF3-4930-8DA3-2B9D1D9A50A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" fitToHeight="0" orientation="landscape" r:id="rId5"/>
